--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD14_CambiosDivisas_150522.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD14_CambiosDivisas_150522.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>*</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Ob</t>
   </si>
   <si>
-    <t>NOTAS EXPLICATIVAS</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -63,20 +60,20 @@
     <t>Moneda</t>
   </si>
   <si>
-    <t>TB Currency
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Si la divisa es EURO, entonces valor fijo = 1,00€</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Esta fecha servirá para el rango temporal en el informe de "Cambio de Divisas"</t>
+  </si>
+  <si>
+    <t>TB Currencies
 [Currency]</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Si la divisa es EURO, entonces valor fijo = 1,00€</t>
-  </si>
-  <si>
-    <t>Exchange</t>
-  </si>
-  <si>
-    <t>Esta fecha servirá para el rango temporal en el informe de "Cambio de Divisas"</t>
   </si>
 </sst>
 </file>
@@ -146,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -214,49 +211,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,12 +242,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -300,25 +254,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,16 +575,16 @@
     <col min="3" max="3" width="15.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" style="6" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -667,37 +603,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
+      <c r="G2" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>15</v>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -706,64 +642,20 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
